--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
   <si>
     <t>synthetic</t>
   </si>
@@ -35,9 +35,6 @@
     <t>devices</t>
   </si>
   <si>
-    <t>dbpedia</t>
-  </si>
-  <si>
     <t>persist</t>
   </si>
   <si>
@@ -54,16 +51,114 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>﻿local-1512982417718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	kmeans_exec_nopersist.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2017/12/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	training</t>
+  </si>
+  <si>
+    <t>local-1512982377073</t>
+  </si>
+  <si>
+    <t>local-1512982334941</t>
+  </si>
+  <si>
+    <t>﻿local-1512982760131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	kmeans_exec.py</t>
+  </si>
+  <si>
+    <t>local-1512982722370</t>
+  </si>
+  <si>
+    <t>local-1512982681563</t>
+  </si>
+  <si>
+    <t>﻿local-1512983037162</t>
+  </si>
+  <si>
+    <t>local-1512982974004</t>
+  </si>
+  <si>
+    <t>local-1512982903585</t>
+  </si>
+  <si>
+    <t>﻿local-1512983414024</t>
+  </si>
+  <si>
+    <t>local-1512983304467</t>
+  </si>
+  <si>
+    <t>local-1512983195725</t>
+  </si>
+  <si>
+    <t>﻿local-1512983786942</t>
+  </si>
+  <si>
+    <t>local-1512983700590</t>
+  </si>
+  <si>
+    <t>local-1512983611512</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>﻿local-1512984165081</t>
+  </si>
+  <si>
+    <t>local-1512984028772</t>
+  </si>
+  <si>
+    <t>local-1512983884331</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,17 +181,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,141 +478,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <f>M2-H2</f>
+        <v>3.0092592592592671E-4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.12446759259259259</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.12476851851851851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1">
+        <f>M3-H3</f>
+        <v>3.3564814814816823E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1240162037037037</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.12435185185185187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1">
+        <f>M4-H4</f>
+        <v>3.3564814814814048E-4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.12355324074074074</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.12388888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>M5-H5</f>
+        <v>3.4722222222222099E-4</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.12049768518518518</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.1208449074074074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1">
+        <f>M6-H6</f>
+        <v>3.4722222222222099E-4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.12002314814814814</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.12037037037037036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <f>M7-H7</f>
+        <v>3.5879629629628762E-4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.11953703703703704</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.11989583333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <f>M10-H10</f>
+        <v>6.1342592592592005E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.12767361111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.12828703703703703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1">
+        <f>M11-H11</f>
+        <v>6.2499999999998668E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.12693287037037038</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.12755787037037036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
+        <f>M12-H12</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.12612268518518518</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.12681712962962963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <f>F2-E2</f>
-        <v>3.9351851851851874E-4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6.6435185185185182E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.037037037037037E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B10" si="0">F3-E3</f>
-        <v>1.354166666666665E-3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C13" s="1">
+        <f>M13-H13</f>
+        <v>1.0879629629629572E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.13203703703703704</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.13312499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1">
+        <f>M14-H14</f>
+        <v>1.1574074074074125E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.13075231481481481</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.13190972222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1">
+        <f>M15-H15</f>
+        <v>1.1342592592592515E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.12950231481481481</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.13063657407407406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>1.2847222222222223E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.4201388888888888E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5625000000000014E-3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.0590277777777777E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.2152777777777778E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2407407407407385E-4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.5300925925925926E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5162037037037002E-3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.5682870370370371E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.7199074074074071E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6805555555555515E-3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.7256944444444446E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.0937499999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+      <c r="C18" s="1">
+        <f>M18-H18</f>
+        <v>8.4490740740739145E-4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.1363425925925926</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.13718749999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1">
+        <f>M19-H19</f>
+        <v>8.9120370370368573E-4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.13533564814814816</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.13622685185185185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1">
+        <f>M20-H20</f>
+        <v>9.0277777777780788E-4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.13430555555555554</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.13520833333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <f>M21-H21</f>
+        <v>1.5740740740740888E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.14072916666666666</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.14230324074074074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1">
+        <f>M22-H22</f>
+        <v>1.4814814814814725E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.13915509259259259</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.14063657407407407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1">
+        <f>M23-H23</f>
+        <v>1.5624999999999944E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.13747685185185185</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.13903935185185184</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="9">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
